--- a/test data/Graphs/standard graph popularity.xlsx
+++ b/test data/Graphs/standard graph popularity.xlsx
@@ -203,6 +203,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1073,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168495744"/>
-        <c:axId val="168497920"/>
+        <c:axId val="70491136"/>
+        <c:axId val="70501504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168495744"/>
+        <c:axId val="70491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1104,18 +1105,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168497920"/>
+        <c:crossAx val="70501504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168497920"/>
+        <c:axId val="70501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1145,13 +1147,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168495744"/>
+        <c:crossAx val="70491136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1456,11 +1459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168527360"/>
-        <c:axId val="168529280"/>
+        <c:axId val="70600576"/>
+        <c:axId val="70602752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168527360"/>
+        <c:axId val="70600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,12 +1492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168529280"/>
+        <c:crossAx val="70602752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168529280"/>
+        <c:axId val="70602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1529,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168527360"/>
+        <c:crossAx val="70600576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1817,11 +1820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168545664"/>
-        <c:axId val="168556032"/>
+        <c:axId val="70635520"/>
+        <c:axId val="70637440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168545664"/>
+        <c:axId val="70635520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,12 +1853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168556032"/>
+        <c:crossAx val="70637440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168556032"/>
+        <c:axId val="70637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1890,7 +1893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168545664"/>
+        <c:crossAx val="70635520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1943,6 +1946,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2177,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168891904"/>
-        <c:axId val="168893824"/>
+        <c:axId val="70672384"/>
+        <c:axId val="70674304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168891904"/>
+        <c:axId val="70672384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,18 +2207,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168893824"/>
+        <c:crossAx val="70674304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168893824"/>
+        <c:axId val="70674304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2242,13 +2247,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168891904"/>
+        <c:crossAx val="70672384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2301,6 +2307,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2535,11 +2542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168902016"/>
-        <c:axId val="168912384"/>
+        <c:axId val="70702976"/>
+        <c:axId val="70705152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168902016"/>
+        <c:axId val="70702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,18 +2568,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168912384"/>
+        <c:crossAx val="70705152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168912384"/>
+        <c:axId val="70705152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2600,13 +2608,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168902016"/>
+        <c:crossAx val="70702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3038,11 +3047,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="168941056"/>
-        <c:axId val="168942976"/>
+        <c:axId val="71626752"/>
+        <c:axId val="71628672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168941056"/>
+        <c:axId val="71626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168942976"/>
+        <c:crossAx val="71628672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3079,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168942976"/>
+        <c:axId val="71628672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3113,7 +3122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168941056"/>
+        <c:crossAx val="71626752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
